--- a/Excel Data/TDR/AlfalahSpecialRateTDR_IBG.xlsx
+++ b/Excel Data/TDR/AlfalahSpecialRateTDR_IBG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="AlfalahIslamicSpecialRateTDR" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
   <si>
     <t>CUSTOMER.ID</t>
   </si>
@@ -47,7 +47,22 @@
     <t>INTEREST.RATE:1</t>
   </si>
   <si>
-    <t>100</t>
+    <t>DRAWDOWN.ACCOUNT</t>
+  </si>
+  <si>
+    <t>PRIN.LIQ.ACCT</t>
+  </si>
+  <si>
+    <t>INT.LIQ.ACCT</t>
+  </si>
+  <si>
+    <t>5000000539</t>
+  </si>
+  <si>
+    <t>5000000540</t>
+  </si>
+  <si>
+    <t>TDR1M</t>
   </si>
 </sst>
 </file>
@@ -368,8 +383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,10 +417,10 @@
         <v>11745297</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -415,10 +430,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,7 +445,7 @@
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,10 +461,19 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>12105488</v>
+        <v>11871224</v>
       </c>
       <c r="B2">
         <v>11745297</v>
@@ -462,6 +486,15 @@
       </c>
       <c r="E2">
         <v>1000</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -471,10 +504,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,9 +516,13 @@
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,10 +538,19 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>12105488</v>
+        <v>11871234</v>
       </c>
       <c r="B2">
         <v>11745297</v>
@@ -517,6 +563,15 @@
       </c>
       <c r="E2">
         <v>1000</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
